--- a/data/pca/factorExposure/factorExposure_2017-02-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01699224535353419</v>
+        <v>0.0118430298147598</v>
       </c>
       <c r="C2">
-        <v>0.0176015643639716</v>
+        <v>-0.04113190451569938</v>
       </c>
       <c r="D2">
-        <v>0.0267746318077167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0302736225396417</v>
+      </c>
+      <c r="E2">
+        <v>0.04210209506663556</v>
+      </c>
+      <c r="F2">
+        <v>-0.006511358008991489</v>
+      </c>
+      <c r="G2">
+        <v>0.109759524125275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01962177273412982</v>
+        <v>0.03972043147928303</v>
       </c>
       <c r="C3">
-        <v>2.646567800979763e-05</v>
+        <v>-0.1002953664866707</v>
       </c>
       <c r="D3">
-        <v>0.08584980274003057</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01785824376678931</v>
+      </c>
+      <c r="E3">
+        <v>0.1035973667791978</v>
+      </c>
+      <c r="F3">
+        <v>-0.01568286217395556</v>
+      </c>
+      <c r="G3">
+        <v>0.1425211047852315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03145655295320799</v>
+        <v>0.05542825947341707</v>
       </c>
       <c r="C4">
-        <v>0.0082671363134545</v>
+        <v>-0.06763576847056914</v>
       </c>
       <c r="D4">
-        <v>0.08813362496823353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02517362867921971</v>
+      </c>
+      <c r="E4">
+        <v>0.04065094234925315</v>
+      </c>
+      <c r="F4">
+        <v>0.002432656853258924</v>
+      </c>
+      <c r="G4">
+        <v>0.1013286417007804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.008086324978447591</v>
+        <v>0.03550194600449839</v>
       </c>
       <c r="C6">
-        <v>0.01229859929712261</v>
+        <v>-0.05089361160438626</v>
       </c>
       <c r="D6">
-        <v>0.06459243515289968</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01752249107553918</v>
+      </c>
+      <c r="E6">
+        <v>0.04319857335538772</v>
+      </c>
+      <c r="F6">
+        <v>0.0009378222552740613</v>
+      </c>
+      <c r="G6">
+        <v>0.08666052696724055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.001859562532902077</v>
+        <v>0.02056791470222133</v>
       </c>
       <c r="C7">
-        <v>0.01391546039858182</v>
+        <v>-0.03950454903567873</v>
       </c>
       <c r="D7">
-        <v>0.0363815575744721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01413691861630995</v>
+      </c>
+      <c r="E7">
+        <v>0.006092693918891462</v>
+      </c>
+      <c r="F7">
+        <v>-0.004823957488029327</v>
+      </c>
+      <c r="G7">
+        <v>0.1241101561356621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.005022991419394942</v>
+        <v>0.00293957106716236</v>
       </c>
       <c r="C8">
-        <v>0.003363217338539871</v>
+        <v>-0.02397933473319023</v>
       </c>
       <c r="D8">
-        <v>-0.01231143808230731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.00415227922334961</v>
+      </c>
+      <c r="E8">
+        <v>0.03330414907335152</v>
+      </c>
+      <c r="F8">
+        <v>-0.0003665681671052337</v>
+      </c>
+      <c r="G8">
+        <v>0.07107621910257512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0109193325391358</v>
+        <v>0.03266165476750515</v>
       </c>
       <c r="C9">
-        <v>0.009809520591505062</v>
+        <v>-0.04905002425646379</v>
       </c>
       <c r="D9">
-        <v>0.05476741148452374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01668929091095592</v>
+      </c>
+      <c r="E9">
+        <v>0.02683019318331682</v>
+      </c>
+      <c r="F9">
+        <v>0.001576247471099738</v>
+      </c>
+      <c r="G9">
+        <v>0.1037145983633715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1476682752817148</v>
+        <v>0.09778172623724186</v>
       </c>
       <c r="C10">
-        <v>-0.08603686957252318</v>
+        <v>0.1823581777705959</v>
       </c>
       <c r="D10">
-        <v>-0.1212938156699843</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0156539041182455</v>
+      </c>
+      <c r="E10">
+        <v>0.01943474838893737</v>
+      </c>
+      <c r="F10">
+        <v>-0.02577188762935158</v>
+      </c>
+      <c r="G10">
+        <v>0.05350046758392399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.003571031796555791</v>
+        <v>0.0350997463818309</v>
       </c>
       <c r="C11">
-        <v>-0.00108922152362315</v>
+        <v>-0.05184050192291234</v>
       </c>
       <c r="D11">
-        <v>0.04825654059234601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002658740368301962</v>
+      </c>
+      <c r="E11">
+        <v>0.02198702450838485</v>
+      </c>
+      <c r="F11">
+        <v>0.0147132770734341</v>
+      </c>
+      <c r="G11">
+        <v>0.09037365786955516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006909194895864138</v>
+        <v>0.03714712891738943</v>
       </c>
       <c r="C12">
-        <v>0.002646084785962812</v>
+        <v>-0.04630295007061411</v>
       </c>
       <c r="D12">
-        <v>0.04106650611489331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006608071619320704</v>
+      </c>
+      <c r="E12">
+        <v>0.0098311264040798</v>
+      </c>
+      <c r="F12">
+        <v>-0.001139583923624206</v>
+      </c>
+      <c r="G12">
+        <v>0.08194413098413003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01231002544989101</v>
+        <v>0.0143852013079642</v>
       </c>
       <c r="C13">
-        <v>0.01756120596244405</v>
+        <v>-0.04166359734228096</v>
       </c>
       <c r="D13">
-        <v>0.02933716796371496</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02710281427455619</v>
+      </c>
+      <c r="E13">
+        <v>0.04180798333290228</v>
+      </c>
+      <c r="F13">
+        <v>-0.007660849553476407</v>
+      </c>
+      <c r="G13">
+        <v>0.1425825829806831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.001725799190801008</v>
+        <v>0.009111506708381935</v>
       </c>
       <c r="C14">
-        <v>0.006851388302013327</v>
+        <v>-0.02853303734462702</v>
       </c>
       <c r="D14">
-        <v>0.01744552033306788</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01044133997471238</v>
+      </c>
+      <c r="E14">
+        <v>0.00876377396330078</v>
+      </c>
+      <c r="F14">
+        <v>-0.01046483727250178</v>
+      </c>
+      <c r="G14">
+        <v>0.1107761067909917</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.006606909559092858</v>
+        <v>0.03404055077005224</v>
       </c>
       <c r="C16">
-        <v>-0.002905117245485009</v>
+        <v>-0.04485224826818102</v>
       </c>
       <c r="D16">
-        <v>0.03621078960429228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002170997712050279</v>
+      </c>
+      <c r="E16">
+        <v>0.01811531639588525</v>
+      </c>
+      <c r="F16">
+        <v>-0.003805450466242564</v>
+      </c>
+      <c r="G16">
+        <v>0.09375130792905188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.009307052407147872</v>
+        <v>0.02072959561070222</v>
       </c>
       <c r="C19">
-        <v>0.009596392528090662</v>
+        <v>-0.05152611231139321</v>
       </c>
       <c r="D19">
-        <v>0.04098694122663724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02022619994907923</v>
+      </c>
+      <c r="E19">
+        <v>0.08918309465993325</v>
+      </c>
+      <c r="F19">
+        <v>0.00148883878463233</v>
+      </c>
+      <c r="G19">
+        <v>0.1403299484503985</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.002171115264464189</v>
+        <v>0.01597749674690439</v>
       </c>
       <c r="C20">
-        <v>0.01094174664426292</v>
+        <v>-0.0412216655476969</v>
       </c>
       <c r="D20">
-        <v>0.03269204378377689</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01464188990437037</v>
+      </c>
+      <c r="E20">
+        <v>0.03920672099426895</v>
+      </c>
+      <c r="F20">
+        <v>-0.02084473282481189</v>
+      </c>
+      <c r="G20">
+        <v>0.1145517994160772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.001581744218190625</v>
+        <v>0.01058162514391888</v>
       </c>
       <c r="C21">
-        <v>0.01368367262842484</v>
+        <v>-0.03831021035523798</v>
       </c>
       <c r="D21">
-        <v>0.006541005618022527</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01960635958990681</v>
+      </c>
+      <c r="E21">
+        <v>0.04864605772882431</v>
+      </c>
+      <c r="F21">
+        <v>-0.01296772300130508</v>
+      </c>
+      <c r="G21">
+        <v>0.1417774603808141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001180355325729028</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.007072967578066487</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002152839830910768</v>
+      </c>
+      <c r="E22">
+        <v>0.01655578027843094</v>
+      </c>
+      <c r="F22">
+        <v>0.009239724707015314</v>
+      </c>
+      <c r="G22">
+        <v>0.001765330800641616</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001189130770915497</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.007079669985939707</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002150569808447866</v>
+      </c>
+      <c r="E23">
+        <v>0.01652911649302004</v>
+      </c>
+      <c r="F23">
+        <v>0.009231112637841751</v>
+      </c>
+      <c r="G23">
+        <v>0.001655344689017345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0001101381629601465</v>
+        <v>0.02898876579286536</v>
       </c>
       <c r="C24">
-        <v>0.005810499790388528</v>
+        <v>-0.04826180679854107</v>
       </c>
       <c r="D24">
-        <v>0.03873245977987293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007373273655317436</v>
+      </c>
+      <c r="E24">
+        <v>0.01667004157565094</v>
+      </c>
+      <c r="F24">
+        <v>0.006169452739011789</v>
+      </c>
+      <c r="G24">
+        <v>0.0926697949959973</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01566855213937399</v>
+        <v>0.04206421436756671</v>
       </c>
       <c r="C25">
-        <v>0.003195311406658356</v>
+        <v>-0.05598783391338426</v>
       </c>
       <c r="D25">
-        <v>0.05291584076967586</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01135405194460778</v>
+      </c>
+      <c r="E25">
+        <v>0.005719403525486794</v>
+      </c>
+      <c r="F25">
+        <v>0.0030348430417727</v>
+      </c>
+      <c r="G25">
+        <v>0.09702939417435469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.008079495516878287</v>
+        <v>0.01428897465422835</v>
       </c>
       <c r="C26">
-        <v>0.02057555693125039</v>
+        <v>-0.011765497038566</v>
       </c>
       <c r="D26">
-        <v>-0.001237867693841987</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0243205670731665</v>
+      </c>
+      <c r="E26">
+        <v>0.009092542129265075</v>
+      </c>
+      <c r="F26">
+        <v>-0.00812183879198472</v>
+      </c>
+      <c r="G26">
+        <v>0.08549939390562106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1985134601203722</v>
+        <v>0.126830381414795</v>
       </c>
       <c r="C28">
-        <v>-0.09899456038133619</v>
+        <v>0.2417764931700841</v>
       </c>
       <c r="D28">
-        <v>-0.1485027466330157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.007010469065271135</v>
+      </c>
+      <c r="E28">
+        <v>0.005829844850202348</v>
+      </c>
+      <c r="F28">
+        <v>-0.02067063664939638</v>
+      </c>
+      <c r="G28">
+        <v>0.04754751902518582</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.00637493852670142</v>
+        <v>0.009420617811892447</v>
       </c>
       <c r="C29">
-        <v>0.003946214437071167</v>
+        <v>-0.02335828581097426</v>
       </c>
       <c r="D29">
-        <v>0.01614469510566766</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009427586924037617</v>
+      </c>
+      <c r="E29">
+        <v>0.003316963922173469</v>
+      </c>
+      <c r="F29">
+        <v>-0.01597311710589713</v>
+      </c>
+      <c r="G29">
+        <v>0.1024269932046541</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01240297840012643</v>
+        <v>0.04016640109022871</v>
       </c>
       <c r="C30">
-        <v>0.02014725703743292</v>
+        <v>-0.06841884570648882</v>
       </c>
       <c r="D30">
-        <v>0.09643033620344531</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02972290476804975</v>
+      </c>
+      <c r="E30">
+        <v>0.0713682202978226</v>
+      </c>
+      <c r="F30">
+        <v>0.02871328633655948</v>
+      </c>
+      <c r="G30">
+        <v>0.1382161516037141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02187822737103544</v>
+        <v>0.05355469754435636</v>
       </c>
       <c r="C31">
-        <v>-0.006480024223353903</v>
+        <v>-0.03971248176353203</v>
       </c>
       <c r="D31">
-        <v>0.02778858216988468</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003971135392913897</v>
+      </c>
+      <c r="E31">
+        <v>-0.002631430901185425</v>
+      </c>
+      <c r="F31">
+        <v>-0.03780933487783905</v>
+      </c>
+      <c r="G31">
+        <v>0.09521034219931748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002352672883347138</v>
+        <v>0.002295700517029428</v>
       </c>
       <c r="C32">
-        <v>-0.008080054978322563</v>
+        <v>-0.02157997960543826</v>
       </c>
       <c r="D32">
-        <v>0.001906055123936739</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002574715849974202</v>
+      </c>
+      <c r="E32">
+        <v>0.04258745405552629</v>
+      </c>
+      <c r="F32">
+        <v>0.02935246034699921</v>
+      </c>
+      <c r="G32">
+        <v>0.0874360268812558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.007115013906947046</v>
+        <v>0.02779779837669619</v>
       </c>
       <c r="C33">
-        <v>0.008743385220657929</v>
+        <v>-0.05114699195306658</v>
       </c>
       <c r="D33">
-        <v>0.03963987087966942</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01667361771404588</v>
+      </c>
+      <c r="E33">
+        <v>0.05124544644095858</v>
+      </c>
+      <c r="F33">
+        <v>0.007253562027774099</v>
+      </c>
+      <c r="G33">
+        <v>0.1628660077790678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.01513032893876991</v>
+        <v>0.04067991048732975</v>
       </c>
       <c r="C34">
-        <v>-0.01465681093517418</v>
+        <v>-0.05777049887148715</v>
       </c>
       <c r="D34">
-        <v>0.05452471929503152</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004261220949353543</v>
+      </c>
+      <c r="E34">
+        <v>0.01299312366466346</v>
+      </c>
+      <c r="F34">
+        <v>0.01832314098261948</v>
+      </c>
+      <c r="G34">
+        <v>0.09387961163768016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01054435266131497</v>
+        <v>0.01573026836901587</v>
       </c>
       <c r="C36">
-        <v>0.006401450091783767</v>
+        <v>-0.01062181456001643</v>
       </c>
       <c r="D36">
-        <v>0.001607521186043004</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01300150945543742</v>
+      </c>
+      <c r="E36">
+        <v>0.01071035541079663</v>
+      </c>
+      <c r="F36">
+        <v>-0.009181523981234303</v>
+      </c>
+      <c r="G36">
+        <v>0.09314651894333213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.01960951815806372</v>
+        <v>0.0316581960525537</v>
       </c>
       <c r="C38">
-        <v>-0.0192060098943543</v>
+        <v>-0.03048483541696274</v>
       </c>
       <c r="D38">
-        <v>0.0373924939662175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007432856495559999</v>
+      </c>
+      <c r="E38">
+        <v>0.005761201899783614</v>
+      </c>
+      <c r="F38">
+        <v>-0.01857533225010252</v>
+      </c>
+      <c r="G38">
+        <v>0.08396974397579154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01221729566763698</v>
+        <v>0.0368998944899891</v>
       </c>
       <c r="C39">
-        <v>0.01618818399150613</v>
+        <v>-0.07868525307159485</v>
       </c>
       <c r="D39">
-        <v>0.09378593599673081</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01207311191409735</v>
+      </c>
+      <c r="E39">
+        <v>0.03343800289600228</v>
+      </c>
+      <c r="F39">
+        <v>0.01738681935948801</v>
+      </c>
+      <c r="G39">
+        <v>0.09437733905338595</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01415223171793565</v>
+        <v>0.01333971192595629</v>
       </c>
       <c r="C40">
-        <v>0.004024372574453863</v>
+        <v>-0.03823814657143044</v>
       </c>
       <c r="D40">
-        <v>0.02269767238391901</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01505543459477279</v>
+      </c>
+      <c r="E40">
+        <v>0.03387290062297549</v>
+      </c>
+      <c r="F40">
+        <v>-0.01393099321875423</v>
+      </c>
+      <c r="G40">
+        <v>0.120830206268706</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01248057379930253</v>
+        <v>0.02010477859935469</v>
       </c>
       <c r="C41">
-        <v>-0.003012779927758088</v>
+        <v>-0.003912652285955334</v>
       </c>
       <c r="D41">
-        <v>-0.01080316316735128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004951030410622524</v>
+      </c>
+      <c r="E41">
+        <v>0.009019761268671716</v>
+      </c>
+      <c r="F41">
+        <v>-0.01592471966270436</v>
+      </c>
+      <c r="G41">
+        <v>0.08811646449777422</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.03038729951434645</v>
+        <v>0.006806426926105631</v>
       </c>
       <c r="C42">
-        <v>0.08722150391727546</v>
+        <v>-0.02707439717216122</v>
       </c>
       <c r="D42">
-        <v>0.09212624662379366</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08704098829211872</v>
+      </c>
+      <c r="E42">
+        <v>0.0003641523398895076</v>
+      </c>
+      <c r="F42">
+        <v>-0.0381544165503198</v>
+      </c>
+      <c r="G42">
+        <v>-0.01981643644401853</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01365797803175915</v>
+        <v>0.03554934875684524</v>
       </c>
       <c r="C43">
-        <v>-0.002857996590804929</v>
+        <v>-0.01918748540775806</v>
       </c>
       <c r="D43">
-        <v>-0.009420650153051472</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006222223199319588</v>
+      </c>
+      <c r="E43">
+        <v>0.02193327192149731</v>
+      </c>
+      <c r="F43">
+        <v>-0.01114869339839184</v>
+      </c>
+      <c r="G43">
+        <v>0.1187983959729895</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.001980329711179901</v>
+        <v>0.01328488913190867</v>
       </c>
       <c r="C44">
-        <v>0.004100771929241553</v>
+        <v>-0.05812344075019896</v>
       </c>
       <c r="D44">
-        <v>0.04468421091230824</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007135671297252893</v>
+      </c>
+      <c r="E44">
+        <v>0.02811460067044418</v>
+      </c>
+      <c r="F44">
+        <v>-0.0150832152101014</v>
+      </c>
+      <c r="G44">
+        <v>0.110171737229439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.004455659490572409</v>
+        <v>0.009383368439881957</v>
       </c>
       <c r="C46">
-        <v>0.008500639405421662</v>
+        <v>-0.0153519389915372</v>
       </c>
       <c r="D46">
-        <v>-0.005903541293896983</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01250823502719897</v>
+      </c>
+      <c r="E46">
+        <v>-0.003183683654066189</v>
+      </c>
+      <c r="F46">
+        <v>-0.01996553770387669</v>
+      </c>
+      <c r="G46">
+        <v>0.108210695882472</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02727481561727091</v>
+        <v>0.07937522025188767</v>
       </c>
       <c r="C47">
-        <v>-0.0169203478244518</v>
+        <v>-0.06978624636051577</v>
       </c>
       <c r="D47">
-        <v>0.0742046169439451</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005046335968405112</v>
+      </c>
+      <c r="E47">
+        <v>-0.01309120926382402</v>
+      </c>
+      <c r="F47">
+        <v>-0.05216593636963014</v>
+      </c>
+      <c r="G47">
+        <v>0.0819945004976845</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.00608093859480317</v>
+        <v>0.01846706243166129</v>
       </c>
       <c r="C48">
-        <v>-0.001873817569254734</v>
+        <v>-0.01335725420212806</v>
       </c>
       <c r="D48">
-        <v>0.01222764770422034</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002669510240993958</v>
+      </c>
+      <c r="E48">
+        <v>0.005917144339756239</v>
+      </c>
+      <c r="F48">
+        <v>-0.02034731908519909</v>
+      </c>
+      <c r="G48">
+        <v>0.1011657297167374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03687642345881779</v>
+        <v>0.0752265639936773</v>
       </c>
       <c r="C50">
-        <v>-0.02030163677410158</v>
+        <v>-0.07340992743796863</v>
       </c>
       <c r="D50">
-        <v>0.06735384517625509</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001863799168188844</v>
+      </c>
+      <c r="E50">
+        <v>-0.009153910923006185</v>
+      </c>
+      <c r="F50">
+        <v>-0.05189071953373765</v>
+      </c>
+      <c r="G50">
+        <v>0.09180586726021524</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.008114373797513884</v>
+        <v>0.01293844146262559</v>
       </c>
       <c r="C51">
-        <v>0.002239443966558839</v>
+        <v>-0.03760824365357141</v>
       </c>
       <c r="D51">
-        <v>0.02400702381174582</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01098583210211994</v>
+      </c>
+      <c r="E51">
+        <v>0.02972520557167559</v>
+      </c>
+      <c r="F51">
+        <v>0.01325182310027664</v>
+      </c>
+      <c r="G51">
+        <v>0.1235777969853653</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.04364566900043265</v>
+        <v>0.08190431085852838</v>
       </c>
       <c r="C53">
-        <v>-0.02377085814552956</v>
+        <v>-0.08410413398069337</v>
       </c>
       <c r="D53">
-        <v>0.1123965799080223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00340626529383036</v>
+      </c>
+      <c r="E53">
+        <v>-0.03069971716951853</v>
+      </c>
+      <c r="F53">
+        <v>-0.05908223082305025</v>
+      </c>
+      <c r="G53">
+        <v>0.08816608068317418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01502272159363209</v>
+        <v>0.03182134623486667</v>
       </c>
       <c r="C54">
-        <v>-0.01142346676325693</v>
+        <v>-0.01921532519098819</v>
       </c>
       <c r="D54">
-        <v>-0.002061690078638402</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0009266215011658044</v>
+      </c>
+      <c r="E54">
+        <v>0.01822930962917604</v>
+      </c>
+      <c r="F54">
+        <v>-0.01021534940397222</v>
+      </c>
+      <c r="G54">
+        <v>0.109514083381283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.02698718657715685</v>
+        <v>0.07445169966558382</v>
       </c>
       <c r="C55">
-        <v>-0.01613442283601894</v>
+        <v>-0.06753998405718632</v>
       </c>
       <c r="D55">
-        <v>0.09349639833156373</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005091173790666059</v>
+      </c>
+      <c r="E55">
+        <v>-0.03017247671442975</v>
+      </c>
+      <c r="F55">
+        <v>-0.05694997316938872</v>
+      </c>
+      <c r="G55">
+        <v>0.06619101834395079</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.05741511399530383</v>
+        <v>0.1372185322228459</v>
       </c>
       <c r="C56">
-        <v>-0.03672846522875486</v>
+        <v>-0.1064067505595588</v>
       </c>
       <c r="D56">
-        <v>0.1537542845035599</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01316555003190759</v>
+      </c>
+      <c r="E56">
+        <v>-0.04086669053530353</v>
+      </c>
+      <c r="F56">
+        <v>-0.07240729917025886</v>
+      </c>
+      <c r="G56">
+        <v>0.03619931906803878</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01613964768241665</v>
+        <v>0.004904637509906446</v>
       </c>
       <c r="C57">
-        <v>0.01642279325364549</v>
+        <v>-0.006069456216472666</v>
       </c>
       <c r="D57">
-        <v>0.02610166861403942</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02269015799240109</v>
+      </c>
+      <c r="E57">
+        <v>0.02481055573976841</v>
+      </c>
+      <c r="F57">
+        <v>0.001687110493760313</v>
+      </c>
+      <c r="G57">
+        <v>0.02177851234294965</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.003093886767994654</v>
+        <v>0.04708228421964478</v>
       </c>
       <c r="C58">
-        <v>0.001609206206642121</v>
+        <v>-0.04578336792307148</v>
       </c>
       <c r="D58">
-        <v>0.1842289637803212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.0234951153406862</v>
+      </c>
+      <c r="E58">
+        <v>0.8484122073962053</v>
+      </c>
+      <c r="F58">
+        <v>-0.4171950043385461</v>
+      </c>
+      <c r="G58">
+        <v>-0.2510201495631378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2236026469528449</v>
+        <v>0.1589357601079055</v>
       </c>
       <c r="C59">
-        <v>-0.1180688088033085</v>
+        <v>0.2089971350337854</v>
       </c>
       <c r="D59">
-        <v>-0.1269751510270927</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01167466408924611</v>
+      </c>
+      <c r="E59">
+        <v>0.02465319235038969</v>
+      </c>
+      <c r="F59">
+        <v>-0.00648609844954027</v>
+      </c>
+      <c r="G59">
+        <v>0.03914463267243083</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2123284216832493</v>
+        <v>0.2889665709664038</v>
       </c>
       <c r="C60">
-        <v>-0.0930222590217282</v>
+        <v>-0.1119489931786995</v>
       </c>
       <c r="D60">
-        <v>0.1808445109728487</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01311893693172508</v>
+      </c>
+      <c r="E60">
+        <v>0.06608265796508142</v>
+      </c>
+      <c r="F60">
+        <v>0.3439693139758589</v>
+      </c>
+      <c r="G60">
+        <v>-0.1620177275025112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0001336049512747736</v>
+        <v>0.03848055389713472</v>
       </c>
       <c r="C61">
-        <v>0.003631980169507509</v>
+        <v>-0.06456086603029826</v>
       </c>
       <c r="D61">
-        <v>0.07311498161577278</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006141947161038342</v>
+      </c>
+      <c r="E61">
+        <v>0.02912702709132864</v>
+      </c>
+      <c r="F61">
+        <v>0.01059355426744758</v>
+      </c>
+      <c r="G61">
+        <v>0.1005241316762376</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.00664094947039201</v>
+        <v>0.01491817333997775</v>
       </c>
       <c r="C63">
-        <v>0.004633425217738192</v>
+        <v>-0.03045932004463495</v>
       </c>
       <c r="D63">
-        <v>0.02413813582784419</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008904271789129647</v>
+      </c>
+      <c r="E63">
+        <v>0.005847584476799017</v>
+      </c>
+      <c r="F63">
+        <v>-0.01456547263450803</v>
+      </c>
+      <c r="G63">
+        <v>0.09438424989583175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.02639544522237723</v>
+        <v>0.04991777799702524</v>
       </c>
       <c r="C64">
-        <v>-0.008477804400138796</v>
+        <v>-0.04531467063480056</v>
       </c>
       <c r="D64">
-        <v>0.05086280395718899</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006377715484170074</v>
+      </c>
+      <c r="E64">
+        <v>0.005198756522616243</v>
+      </c>
+      <c r="F64">
+        <v>0.003829833846538953</v>
+      </c>
+      <c r="G64">
+        <v>0.1047304352266127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.03272937248207364</v>
+        <v>0.07440518986746682</v>
       </c>
       <c r="C65">
-        <v>0.001204006351791566</v>
+        <v>-0.05927352936527646</v>
       </c>
       <c r="D65">
-        <v>0.1065439284417869</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01722307913552346</v>
+      </c>
+      <c r="E65">
+        <v>0.0488156122758252</v>
+      </c>
+      <c r="F65">
+        <v>0.01999667113440846</v>
+      </c>
+      <c r="G65">
+        <v>0.04413999420175531</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.008865522308121168</v>
+        <v>0.04957744781158858</v>
       </c>
       <c r="C66">
-        <v>0.01376727758063525</v>
+        <v>-0.1051605491855502</v>
       </c>
       <c r="D66">
-        <v>0.134239231019518</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01237515619803028</v>
+      </c>
+      <c r="E66">
+        <v>0.05048169419727971</v>
+      </c>
+      <c r="F66">
+        <v>0.02635132014336878</v>
+      </c>
+      <c r="G66">
+        <v>0.1064209056411291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04291765267904517</v>
+        <v>0.05496497020321302</v>
       </c>
       <c r="C67">
-        <v>-0.02777375196710747</v>
+        <v>-0.0351230207883988</v>
       </c>
       <c r="D67">
-        <v>0.05967490908394302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006053686897684096</v>
+      </c>
+      <c r="E67">
+        <v>-0.005809892796573997</v>
+      </c>
+      <c r="F67">
+        <v>-0.01589755314670813</v>
+      </c>
+      <c r="G67">
+        <v>0.07017352548261969</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.228321116157905</v>
+        <v>0.1566271740741446</v>
       </c>
       <c r="C68">
-        <v>-0.0985835062499018</v>
+        <v>0.2714224766851426</v>
       </c>
       <c r="D68">
-        <v>-0.1852450668790994</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.004976514948330181</v>
+      </c>
+      <c r="E68">
+        <v>0.004368597663120258</v>
+      </c>
+      <c r="F68">
+        <v>-0.04698477036243165</v>
+      </c>
+      <c r="G68">
+        <v>0.02247052057958452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03422945251904203</v>
+        <v>0.08198528568696999</v>
       </c>
       <c r="C69">
-        <v>-0.02505277533273773</v>
+        <v>-0.07361107092982125</v>
       </c>
       <c r="D69">
-        <v>0.07683220524117333</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008907520093074509</v>
+      </c>
+      <c r="E69">
+        <v>-0.0263545646432932</v>
+      </c>
+      <c r="F69">
+        <v>-0.03326809397286566</v>
+      </c>
+      <c r="G69">
+        <v>0.09657071509852663</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.191502807558714</v>
+        <v>0.1420884487150735</v>
       </c>
       <c r="C71">
-        <v>-0.09034900902797863</v>
+        <v>0.2291151742938972</v>
       </c>
       <c r="D71">
-        <v>-0.1239797727130329</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002880447386782874</v>
+      </c>
+      <c r="E71">
+        <v>0.03174937498419812</v>
+      </c>
+      <c r="F71">
+        <v>-0.031917261920625</v>
+      </c>
+      <c r="G71">
+        <v>0.06842993132455288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.02421791634765307</v>
+        <v>0.08661599822869565</v>
       </c>
       <c r="C72">
-        <v>-0.02069919767635818</v>
+        <v>-0.07036064399275421</v>
       </c>
       <c r="D72">
-        <v>0.09426412637765601</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00820813290733058</v>
+      </c>
+      <c r="E72">
+        <v>-0.007400422822186409</v>
+      </c>
+      <c r="F72">
+        <v>0.03377695583447121</v>
+      </c>
+      <c r="G72">
+        <v>0.09154160327741205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2817552096349597</v>
+        <v>0.3745090254739625</v>
       </c>
       <c r="C73">
-        <v>-0.1209692868896488</v>
+        <v>-0.1155092740722179</v>
       </c>
       <c r="D73">
-        <v>0.2681115074897579</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02291620304394397</v>
+      </c>
+      <c r="E73">
+        <v>0.1738558513177394</v>
+      </c>
+      <c r="F73">
+        <v>0.5650482598212414</v>
+      </c>
+      <c r="G73">
+        <v>-0.2926274354102157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0565094508355076</v>
+        <v>0.105398555472252</v>
       </c>
       <c r="C74">
-        <v>-0.03707785481823805</v>
+        <v>-0.1102674032730841</v>
       </c>
       <c r="D74">
-        <v>0.1648319738454293</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009437198262878164</v>
+      </c>
+      <c r="E74">
+        <v>-0.01542654073909129</v>
+      </c>
+      <c r="F74">
+        <v>-0.06651059218008579</v>
+      </c>
+      <c r="G74">
+        <v>0.07199862912307582</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1353631636800742</v>
+        <v>0.2492962560955177</v>
       </c>
       <c r="C75">
-        <v>-0.08410026251201984</v>
+        <v>-0.1503889755554847</v>
       </c>
       <c r="D75">
-        <v>0.2840687083422195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0314702255455067</v>
+      </c>
+      <c r="E75">
+        <v>-0.08988751809468144</v>
+      </c>
+      <c r="F75">
+        <v>-0.1564430692590481</v>
+      </c>
+      <c r="G75">
+        <v>-0.02677305631466098</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.05737145858915292</v>
+        <v>0.1181403128259365</v>
       </c>
       <c r="C76">
-        <v>-0.04290760467622998</v>
+        <v>-0.1108448615551235</v>
       </c>
       <c r="D76">
-        <v>0.185599307297539</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01762304915397054</v>
+      </c>
+      <c r="E76">
+        <v>-0.03878204302724905</v>
+      </c>
+      <c r="F76">
+        <v>-0.09236441128434508</v>
+      </c>
+      <c r="G76">
+        <v>0.05364458248207773</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.02003012364171122</v>
+        <v>0.07031662686172846</v>
       </c>
       <c r="C77">
-        <v>-0.0006456629368088642</v>
+        <v>-0.05806609894054491</v>
       </c>
       <c r="D77">
-        <v>0.08268501395773153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01025657928343108</v>
+      </c>
+      <c r="E77">
+        <v>0.05356347103470454</v>
+      </c>
+      <c r="F77">
+        <v>-2.737193632491012e-05</v>
+      </c>
+      <c r="G77">
+        <v>0.07104172654940789</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.01400561308637282</v>
+        <v>0.04261786047355422</v>
       </c>
       <c r="C78">
-        <v>-0.003218813193942854</v>
+        <v>-0.05029520794625243</v>
       </c>
       <c r="D78">
-        <v>0.06833385326692973</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.006456793320716442</v>
+      </c>
+      <c r="E78">
+        <v>0.03762542275498235</v>
+      </c>
+      <c r="F78">
+        <v>0.02965267379045069</v>
+      </c>
+      <c r="G78">
+        <v>0.1046744598801622</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.000807302367694027</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-2.367297456140132e-05</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.000342065479994442</v>
+      </c>
+      <c r="E79">
+        <v>0.004085403065436723</v>
+      </c>
+      <c r="F79">
+        <v>0.0008990145251181642</v>
+      </c>
+      <c r="G79">
+        <v>0.003031358341416988</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04099415932842521</v>
+        <v>0.04348885574658294</v>
       </c>
       <c r="C80">
-        <v>-0.009275785011120372</v>
+        <v>-0.04963539824662452</v>
       </c>
       <c r="D80">
-        <v>0.08173211718200514</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01338462815580134</v>
+      </c>
+      <c r="E80">
+        <v>0.02897136522838925</v>
+      </c>
+      <c r="F80">
+        <v>0.003863681064675069</v>
+      </c>
+      <c r="G80">
+        <v>0.05507848951251793</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.06925322611454879</v>
+        <v>0.13885086044386</v>
       </c>
       <c r="C81">
-        <v>-0.04278443936669671</v>
+        <v>-0.09753047603283128</v>
       </c>
       <c r="D81">
-        <v>0.1609017104915443</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01521670854539943</v>
+      </c>
+      <c r="E81">
+        <v>-0.05385569993561967</v>
+      </c>
+      <c r="F81">
+        <v>-0.1212567245498456</v>
+      </c>
+      <c r="G81">
+        <v>0.02090775439224812</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.005123620974456083</v>
+        <v>0.1442267557297539</v>
       </c>
       <c r="C82">
-        <v>-0.002655140425698212</v>
+        <v>-0.08299380945650901</v>
       </c>
       <c r="D82">
-        <v>0.0071766970299779</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01150464507645861</v>
+      </c>
+      <c r="E82">
+        <v>-0.124925122025009</v>
+      </c>
+      <c r="F82">
+        <v>-0.04725236424856866</v>
+      </c>
+      <c r="G82">
+        <v>0.05422950290863252</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01502538965875757</v>
+        <v>0.03478331355054629</v>
       </c>
       <c r="C83">
-        <v>-0.003634359564292333</v>
+        <v>-0.03099018111442199</v>
       </c>
       <c r="D83">
-        <v>0.01854615888830476</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006367357170967704</v>
+      </c>
+      <c r="E83">
+        <v>0.03245514474530414</v>
+      </c>
+      <c r="F83">
+        <v>0.02637143327825386</v>
+      </c>
+      <c r="G83">
+        <v>0.06453222771897092</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1269361541620359</v>
+        <v>0.20960148015098</v>
       </c>
       <c r="C85">
-        <v>-0.06667898094615589</v>
+        <v>-0.1455543233749038</v>
       </c>
       <c r="D85">
-        <v>0.2678766247002084</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01729320379766514</v>
+      </c>
+      <c r="E85">
+        <v>-0.114897586710496</v>
+      </c>
+      <c r="F85">
+        <v>-0.092839189161459</v>
+      </c>
+      <c r="G85">
+        <v>-0.06539301773614245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01188266771703334</v>
+        <v>0.01402921349137872</v>
       </c>
       <c r="C86">
-        <v>-0.0006529505598247232</v>
+        <v>-0.02762123614855906</v>
       </c>
       <c r="D86">
-        <v>0.03981273253765238</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01153991804219719</v>
+      </c>
+      <c r="E86">
+        <v>0.05390803852631296</v>
+      </c>
+      <c r="F86">
+        <v>0.005867624742299241</v>
+      </c>
+      <c r="G86">
+        <v>0.187158414912605</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.009462669460906259</v>
+        <v>0.02176596046786184</v>
       </c>
       <c r="C87">
-        <v>0.01396580393387671</v>
+        <v>-0.0177050591830403</v>
       </c>
       <c r="D87">
-        <v>0.02715598921587286</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01231969700190816</v>
+      </c>
+      <c r="E87">
+        <v>0.09876578060571285</v>
+      </c>
+      <c r="F87">
+        <v>-0.01422984908868298</v>
+      </c>
+      <c r="G87">
+        <v>0.1252477298389903</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04500350228544361</v>
+        <v>0.09348906631906866</v>
       </c>
       <c r="C88">
-        <v>0.002215898266133576</v>
+        <v>-0.06954358073781076</v>
       </c>
       <c r="D88">
-        <v>0.04321341081598076</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02212894900271318</v>
+      </c>
+      <c r="E88">
+        <v>-0.004763917631115145</v>
+      </c>
+      <c r="F88">
+        <v>-0.01924386680865232</v>
+      </c>
+      <c r="G88">
+        <v>0.1034369618357417</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.33671030046734</v>
+        <v>0.2308055704063966</v>
       </c>
       <c r="C89">
-        <v>-0.155186257425761</v>
+        <v>0.367321878262965</v>
       </c>
       <c r="D89">
-        <v>-0.2373527285011781</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>6.591037766343031e-05</v>
+      </c>
+      <c r="E89">
+        <v>-0.02314451815119761</v>
+      </c>
+      <c r="F89">
+        <v>-0.02090288192468746</v>
+      </c>
+      <c r="G89">
+        <v>0.07719367024602924</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2859956964902078</v>
+        <v>0.2086036495960404</v>
       </c>
       <c r="C90">
-        <v>-0.1353292220153794</v>
+        <v>0.3172257796606552</v>
       </c>
       <c r="D90">
-        <v>-0.2060400403906533</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004809094068665721</v>
+      </c>
+      <c r="E90">
+        <v>-0.003512373622232174</v>
+      </c>
+      <c r="F90">
+        <v>-0.04870258704908378</v>
+      </c>
+      <c r="G90">
+        <v>0.04361956765254466</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1081402984798934</v>
+        <v>0.1857515274572272</v>
       </c>
       <c r="C91">
-        <v>-0.06991125318429069</v>
+        <v>-0.1387320113565415</v>
       </c>
       <c r="D91">
-        <v>0.2050974355560823</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02254972086432823</v>
+      </c>
+      <c r="E91">
+        <v>-0.08501889607754101</v>
+      </c>
+      <c r="F91">
+        <v>-0.1257696804765614</v>
+      </c>
+      <c r="G91">
+        <v>0.02506387108084049</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2494866293797002</v>
+        <v>0.1989747079633508</v>
       </c>
       <c r="C92">
-        <v>-0.1539497029814557</v>
+        <v>0.2569781530912961</v>
       </c>
       <c r="D92">
-        <v>-0.109708109951866</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03861173873727528</v>
+      </c>
+      <c r="E92">
+        <v>0.02674521702284185</v>
+      </c>
+      <c r="F92">
+        <v>-0.06654015577657094</v>
+      </c>
+      <c r="G92">
+        <v>0.1082603424044592</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.3061642539855613</v>
+        <v>0.2324945254932571</v>
       </c>
       <c r="C93">
-        <v>-0.1520185268781959</v>
+        <v>0.3131657776521036</v>
       </c>
       <c r="D93">
-        <v>-0.1621927428512335</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01145434580837273</v>
+      </c>
+      <c r="E93">
+        <v>0.00368504708073557</v>
+      </c>
+      <c r="F93">
+        <v>-0.04401563382135696</v>
+      </c>
+      <c r="G93">
+        <v>0.05628494428338904</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1450218544336036</v>
+        <v>0.319486471179961</v>
       </c>
       <c r="C94">
-        <v>-0.06636212717950654</v>
+        <v>-0.1871248646581442</v>
       </c>
       <c r="D94">
-        <v>0.2835885260580861</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02057238186736064</v>
+      </c>
+      <c r="E94">
+        <v>-0.2964547760490511</v>
+      </c>
+      <c r="F94">
+        <v>-0.4310494933297231</v>
+      </c>
+      <c r="G94">
+        <v>-0.3965692067647978</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.01352877176079074</v>
+        <v>0.09611895724027145</v>
       </c>
       <c r="C95">
-        <v>-0.01576726731884552</v>
+        <v>-0.08211302819477145</v>
       </c>
       <c r="D95">
-        <v>0.1310104787568406</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009862679303923164</v>
+      </c>
+      <c r="E95">
+        <v>0.09837022154950747</v>
+      </c>
+      <c r="F95">
+        <v>0.1537149192490134</v>
+      </c>
+      <c r="G95">
+        <v>0.05748055519437101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1433752905784625</v>
+        <v>0.1913064826037141</v>
       </c>
       <c r="C98">
-        <v>-0.08772011644004528</v>
+        <v>-0.04547222522521998</v>
       </c>
       <c r="D98">
-        <v>0.1187933997447559</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01181774565139203</v>
+      </c>
+      <c r="E98">
+        <v>0.1126672272946655</v>
+      </c>
+      <c r="F98">
+        <v>0.2266206289960876</v>
+      </c>
+      <c r="G98">
+        <v>-0.02588458186126865</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.00601560278293873</v>
+        <v>0.00925865488108462</v>
       </c>
       <c r="C101">
-        <v>0.003966562258141481</v>
+        <v>-0.02323842452618454</v>
       </c>
       <c r="D101">
-        <v>0.0164333406576545</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009254761457193965</v>
+      </c>
+      <c r="E101">
+        <v>0.00296888361074571</v>
+      </c>
+      <c r="F101">
+        <v>-0.01687006676567375</v>
+      </c>
+      <c r="G101">
+        <v>0.1020055417000779</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.07072997970622237</v>
+        <v>0.1161324645573175</v>
       </c>
       <c r="C102">
-        <v>-0.02911680710551917</v>
+        <v>-0.08264916344950299</v>
       </c>
       <c r="D102">
-        <v>0.1328617724059837</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0007778993405148639</v>
+      </c>
+      <c r="E102">
+        <v>-0.04094417932889433</v>
+      </c>
+      <c r="F102">
+        <v>-0.03425611144288922</v>
+      </c>
+      <c r="G102">
+        <v>0.01219473537862703</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.4422727358572242</v>
+        <v>0.02154832502772967</v>
       </c>
       <c r="C104">
-        <v>0.8870179818875767</v>
+        <v>0.03021639105283994</v>
       </c>
       <c r="D104">
-        <v>-0.01552514069292171</v>
+        <v>-0.9876343174147785</v>
+      </c>
+      <c r="E104">
+        <v>-0.05931148694405346</v>
+      </c>
+      <c r="F104">
+        <v>-0.02823468537601449</v>
+      </c>
+      <c r="G104">
+        <v>-0.04132423036943183</v>
       </c>
     </row>
   </sheetData>
